--- a/data/trans_orig/P56S4-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P56S4-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92523199-5FA5-4E06-BC32-BDD5CFA03E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{108B1228-6589-4929-A57D-4B1218994CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B7511FF1-D1B1-4F0E-9B72-196A769E6AE6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{20AD362A-54B3-4AE6-A0DD-B81E1D0FF4B4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -586,7 +586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6948E4-B37B-4BFC-812C-8F8C0B489950}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBFFD75-670F-4D81-ABE4-461534FF3D82}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3631,7 +3631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06839687-92EC-4F7F-B433-C5C39ADCE445}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7821EC-AC72-46B7-879E-67B22C6ECF99}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P56S4-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P56S4-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{108B1228-6589-4929-A57D-4B1218994CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CBB51F2-E146-4C25-B2D9-912C4CC489A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{20AD362A-54B3-4AE6-A0DD-B81E1D0FF4B4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{16EA0277-B734-43B3-8361-F2BD03130CE6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -586,7 +586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBFFD75-670F-4D81-ABE4-461534FF3D82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEAE0D07-2AAF-4936-9E42-BF5F0775A25B}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3631,7 +3631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7821EC-AC72-46B7-879E-67B22C6ECF99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5578065C-7FDA-4FCA-84D8-D8DAC9E3C67D}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
